--- a/source/表头.xlsx
+++ b/source/表头.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>铁路机车车辆驾驶证（有效期满）换证申请汇总表</t>
   </si>
@@ -152,6 +152,114 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 铁路机车车辆驾驶人员资格考试合格人员汇总表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（单位公章）             审核人：_______________         填报人：_______________        联系电话：_______________          填报日期：           年        月        日 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公民身份号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请
+类型
+代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已持证准
+驾代码
+（增驾填写）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论考试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业
+知识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格证
+明签发
+日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际操作考试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报名日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查试验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查试验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全
+规章</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -232,11 +340,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,14 +358,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -568,654 +676,892 @@
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="2"/>
     </row>
     <row r="28" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
     </row>
     <row r="29" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="33" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+    <row r="34" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+    <row r="35" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+    <row r="36" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="2"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L38" s="8"/>
+      <c r="L38" s="5"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="8"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+    </row>
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+    </row>
+    <row r="51" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R51" s="10"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="A33:K36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A16:L19"/>
-    <mergeCell ref="A9:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A1:M4"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E29:E30"/>
+  <mergeCells count="67">
+    <mergeCell ref="R49:R52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="A44:R47"/>
+    <mergeCell ref="A48:R48"/>
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P29:P30"/>
     <mergeCell ref="Q29:Q30"/>
@@ -1232,6 +1578,32 @@
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
+    <mergeCell ref="A16:L19"/>
+    <mergeCell ref="A9:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A1:M4"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="A33:K36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
